--- a/aa.xlsx
+++ b/aa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Suresh</t>
   </si>
@@ -24,13 +24,16 @@
     <t>Ganesh</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Vimlesh Kumar</t>
+  </si>
+  <si>
+    <t>S K Panda</t>
+  </si>
+  <si>
+    <t>ccg_name</t>
+  </si>
+  <si>
+    <t>ccg_age</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -376,10 +379,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -400,10 +403,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
